--- a/Excel/INTERFAS DE CALORIMETRO.xlsx
+++ b/Excel/INTERFAS DE CALORIMETRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\PROYECTOS\PROYECTOS ARDUINO\Sensor de temperatura (calorimetro)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\PROYECTOS\PROYECTOS ARDUINO\Sensor de temperatura (calorimetro)\PROYECTO_CALORIMETRO\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE20E3-CC87-4744-BCA6-95DB158DE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E59ECFA-E234-4307-BD0F-61B845189EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{09B851AE-F5D9-46F6-BDE3-F7E29BD24907}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Settings" sheetId="4" r:id="rId3"/>
     <sheet name="Data Out" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="DataChannelCountDefault">Settings!$C$8</definedName>
     <definedName name="DataChannelCountSetting">Settings!$D$8</definedName>
@@ -127,9 +124,6 @@
     <t>Newest last</t>
   </si>
   <si>
-    <t>In partnership with NASA</t>
-  </si>
-  <si>
     <t>Calorimetro</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
   <si>
     <t>&lt; Anterior</t>
   </si>
+  <si>
+    <t>3° Vanguardistas A (XIX)</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +160,7 @@
     <numFmt numFmtId="165" formatCode="@\ &quot;(Default)&quot;"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Segoe UI Light"/>
@@ -270,6 +260,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -504,7 +508,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -515,113 +519,77 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="47" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,6 +614,42 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,16 +797,44 @@
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
+              <a:glow rad="63500">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
               </a:glow>
+              <a:outerShdw blurRad="1270000" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:srgbClr val="00B050">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+                <a:outerShdw blurRad="1270000" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -810,7 +842,7 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>22:02.2</c:v>
+                  <c:v>41:58.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Historical Data</c:v>
@@ -819,49 +851,49 @@
                   <c:v>Time</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24:24.3</c:v>
+                  <c:v>13:45.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24:25.6</c:v>
+                  <c:v>13:46.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24:26.9</c:v>
+                  <c:v>13:47.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24:28.2</c:v>
+                  <c:v>13:47.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24:29.6</c:v>
+                  <c:v>13:48.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24:30.9</c:v>
+                  <c:v>13:49.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24:32.2</c:v>
+                  <c:v>13:50.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24:33.5</c:v>
+                  <c:v>13:51.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24:34.8</c:v>
+                  <c:v>13:51.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24:36.1</c:v>
+                  <c:v>13:52.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24:37.5</c:v>
+                  <c:v>13:53.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24:38.8</c:v>
+                  <c:v>13:54.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24:40.1</c:v>
+                  <c:v>13:55.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24:41.4</c:v>
+                  <c:v>13:55.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24:42.7</c:v>
+                  <c:v>13:56.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,55 +905,55 @@
                 <c:formatCode>mm\.ss.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>20.69</c:v>
+                  <c:v>22.94</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.38</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +1012,7 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>22:02.2</c:v>
+                  <c:v>41:58.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Historical Data</c:v>
@@ -989,49 +1021,49 @@
                   <c:v>Time</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24:24.3</c:v>
+                  <c:v>13:45.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24:25.6</c:v>
+                  <c:v>13:46.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24:26.9</c:v>
+                  <c:v>13:47.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24:28.2</c:v>
+                  <c:v>13:47.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24:29.6</c:v>
+                  <c:v>13:48.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24:30.9</c:v>
+                  <c:v>13:49.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24:32.2</c:v>
+                  <c:v>13:50.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24:33.5</c:v>
+                  <c:v>13:51.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24:34.8</c:v>
+                  <c:v>13:51.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24:36.1</c:v>
+                  <c:v>13:52.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24:37.5</c:v>
+                  <c:v>13:53.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24:38.8</c:v>
+                  <c:v>13:54.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24:40.1</c:v>
+                  <c:v>13:55.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24:41.4</c:v>
+                  <c:v>13:55.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24:42.7</c:v>
+                  <c:v>13:56.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1060,6 +1092,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="405597120"/>
         <c:axId val="405596136"/>
@@ -1125,7 +1158,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1134,49 +1167,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1270,7 +1303,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1279,49 +1312,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1412,7 +1445,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1421,49 +1454,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1554,7 +1587,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1563,49 +1596,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1698,7 +1731,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1707,49 +1740,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1842,7 +1875,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1851,49 +1884,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1986,7 +2019,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -1995,49 +2028,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2128,7 +2161,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -2137,49 +2170,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2270,7 +2303,7 @@
                     <c:strCache>
                       <c:ptCount val="18"/>
                       <c:pt idx="0">
-                        <c:v>22:02.2</c:v>
+                        <c:v>41:58.2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Historical Data</c:v>
@@ -2279,49 +2312,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24:24.3</c:v>
+                        <c:v>13:45.4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>24:25.6</c:v>
+                        <c:v>13:46.2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24:26.9</c:v>
+                        <c:v>13:47.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24:28.2</c:v>
+                        <c:v>13:47.8</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>24:29.6</c:v>
+                        <c:v>13:48.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>24:30.9</c:v>
+                        <c:v>13:49.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>24:32.2</c:v>
+                        <c:v>13:50.2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24:33.5</c:v>
+                        <c:v>13:51.0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24:34.8</c:v>
+                        <c:v>13:51.8</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>24:36.1</c:v>
+                        <c:v>13:52.6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>24:37.5</c:v>
+                        <c:v>13:53.4</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>24:38.8</c:v>
+                        <c:v>13:54.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>24:40.1</c:v>
+                        <c:v>13:55.0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>24:41.4</c:v>
+                        <c:v>13:55.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>24:42.7</c:v>
+                        <c:v>13:56.6</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2515,7 +2548,13 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:glow>
+        <a:schemeClr val="accent1">
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2637,7 +2676,27 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2646,49 +2705,49 @@
                 <c:formatCode>mm:ss.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.47528122685185187</c:v>
+                  <c:v>0.25955342592592595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47529644675925925</c:v>
+                  <c:v>0.25956265046296295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47531166666666663</c:v>
+                  <c:v>0.25957187500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47532687499999998</c:v>
+                  <c:v>0.25958109953703706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47534210648148151</c:v>
+                  <c:v>0.25959027777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47535732638888889</c:v>
+                  <c:v>0.25959956018518521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47537258101851854</c:v>
+                  <c:v>0.25960878472222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47538780092592597</c:v>
+                  <c:v>0.25961802083333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4754030208333333</c:v>
+                  <c:v>0.25962716435185185</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47541824074074074</c:v>
+                  <c:v>0.25963645833333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47543346064814812</c:v>
+                  <c:v>0.25964568287037038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47544866898148147</c:v>
+                  <c:v>0.25965489583333334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47546388888888891</c:v>
+                  <c:v>0.2596641203703704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47547910879629635</c:v>
+                  <c:v>0.25967318287037039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47549437500000002</c:v>
+                  <c:v>0.25968241898148148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,49 +2759,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.56</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.5</c:v>
+                  <c:v>20.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.5</c:v>
+                  <c:v>20.440000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,6 +2821,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="731173840"/>
         <c:axId val="731174168"/>
@@ -4601,8 +4661,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>412751</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144772</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4642,6 +4702,105 @@
         <a:xfrm rot="748600">
           <a:off x="11842751" y="2222500"/>
           <a:ext cx="1524000" cy="1150189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0D362D-8389-F2AA-116F-855DD13034A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17800320" y="5687145"/>
+          <a:ext cx="853440" cy="850815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121065</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>87183</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7144AD-B1E9-FC65-265B-452CB10BE3E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11926" t="10943" b="13962"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="21224156">
+          <a:off x="15361065" y="4928075"/>
+          <a:ext cx="1653912" cy="1445664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4907,232 +5066,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data In"/>
-      <sheetName val="Data Out"/>
-      <sheetName val="Settings"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="K1" t="str">
-            <v>update</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>CH1</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>CH2</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>CH3</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>CH4</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>CH5</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>CH6</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>CH7</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>CH8</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>CH9</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>CH10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.34632393518518517</v>
-          </cell>
-          <cell r="B5">
-            <v>12.44</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Historical Data</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Time</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>CH1</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>CH2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>CH3</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>CH4</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>CH5</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>CH6</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>CH7</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>CH8</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>CH9</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>CH10</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.34612612268518522</v>
-          </cell>
-          <cell r="B8">
-            <v>16.190000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.3461413425925926</v>
-          </cell>
-          <cell r="B9">
-            <v>15.69</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.34615656249999999</v>
-          </cell>
-          <cell r="B10">
-            <v>15.31</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.34617178240740737</v>
-          </cell>
-          <cell r="B11">
-            <v>14.94</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.34618700231481481</v>
-          </cell>
-          <cell r="B12">
-            <v>14.63</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.34620222222222224</v>
-          </cell>
-          <cell r="B13">
-            <v>14.38</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.34621744212962963</v>
-          </cell>
-          <cell r="B14">
-            <v>14.13</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.34623266203703706</v>
-          </cell>
-          <cell r="B15">
-            <v>13.75</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.34624787037037036</v>
-          </cell>
-          <cell r="B16">
-            <v>13.44</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.34626309027777774</v>
-          </cell>
-          <cell r="B17">
-            <v>13.13</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.34627831018518518</v>
-          </cell>
-          <cell r="B18">
-            <v>12.88</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.34629349537037041</v>
-          </cell>
-          <cell r="B19">
-            <v>12.75</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.34630868055555553</v>
-          </cell>
-          <cell r="B20">
-            <v>12.56</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.34632393518518517</v>
-          </cell>
-          <cell r="B21">
-            <v>12.44</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.34633914351851852</v>
-          </cell>
-          <cell r="B22">
-            <v>12.38</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>◀ Newest</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5435,9 +5368,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5460,91 +5391,91 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="C9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
     </row>
     <row r="11" spans="2:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
     </row>
     <row r="12" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
     </row>
     <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C13" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -5566,75 +5497,75 @@
     </row>
     <row r="17" spans="3:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="C18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="3:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="3:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="3:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3"/>
@@ -5665,8 +5596,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:XEP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -5687,47 +5618,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="A2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
@@ -5748,10 +5679,10 @@
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <v>0.47363704861111106</v>
+        <v>0.23747942129629629</v>
       </c>
       <c r="B5" s="11">
-        <v>20.69</v>
+        <v>22.94</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5784,7 +5715,7 @@
         <v>Time</v>
       </c>
       <c r="B7" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B4="","",B4)</f>
         <v>CH1</v>
       </c>
       <c r="C7" s="8"/>
@@ -5798,131 +5729,131 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
-        <v>0.47528122685185187</v>
-      </c>
-      <c r="B8" s="44">
-        <v>20.56</v>
+      <c r="A8" s="31">
+        <v>0.25955342592592595</v>
+      </c>
+      <c r="B8" s="32">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
-        <v>0.47529644675925925</v>
-      </c>
-      <c r="B9" s="46">
-        <v>20.5</v>
+      <c r="A9" s="33">
+        <v>0.25956265046296295</v>
+      </c>
+      <c r="B9" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
-        <v>0.47531166666666663</v>
-      </c>
-      <c r="B10" s="46">
-        <v>20.5</v>
+      <c r="A10" s="33">
+        <v>0.25957187500000001</v>
+      </c>
+      <c r="B10" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
-        <v>0.47532687499999998</v>
-      </c>
-      <c r="B11" s="46">
-        <v>20.56</v>
+      <c r="A11" s="33">
+        <v>0.25958109953703706</v>
+      </c>
+      <c r="B11" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
-        <v>0.47534210648148151</v>
-      </c>
-      <c r="B12" s="46">
-        <v>20.5</v>
+      <c r="A12" s="33">
+        <v>0.25959027777777777</v>
+      </c>
+      <c r="B12" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
-        <v>0.47535732638888889</v>
-      </c>
-      <c r="B13" s="46">
-        <v>20.5</v>
+      <c r="A13" s="33">
+        <v>0.25959956018518521</v>
+      </c>
+      <c r="B13" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
-        <v>0.47537258101851854</v>
-      </c>
-      <c r="B14" s="46">
-        <v>20.56</v>
+      <c r="A14" s="33">
+        <v>0.25960878472222221</v>
+      </c>
+      <c r="B14" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
-        <v>0.47538780092592597</v>
-      </c>
-      <c r="B15" s="46">
-        <v>20.5</v>
+      <c r="A15" s="33">
+        <v>0.25961802083333335</v>
+      </c>
+      <c r="B15" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
-        <v>0.4754030208333333</v>
-      </c>
-      <c r="B16" s="46">
-        <v>20.5</v>
+      <c r="A16" s="33">
+        <v>0.25962716435185185</v>
+      </c>
+      <c r="B16" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
-        <v>0.47541824074074074</v>
-      </c>
-      <c r="B17" s="46">
-        <v>20.5</v>
+      <c r="A17" s="33">
+        <v>0.25963645833333332</v>
+      </c>
+      <c r="B17" s="34">
+        <v>20.38</v>
       </c>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>0.47543346064814812</v>
-      </c>
-      <c r="B18" s="46">
-        <v>20.5</v>
+      <c r="A18" s="33">
+        <v>0.25964568287037038</v>
+      </c>
+      <c r="B18" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
-        <v>0.47544866898148147</v>
-      </c>
-      <c r="B19" s="46">
-        <v>20.5</v>
+      <c r="A19" s="33">
+        <v>0.25965489583333334</v>
+      </c>
+      <c r="B19" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
-        <v>0.47546388888888891</v>
-      </c>
-      <c r="B20" s="46">
-        <v>20.5</v>
+      <c r="A20" s="33">
+        <v>0.2596641203703704</v>
+      </c>
+      <c r="B20" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
-        <v>0.47547910879629635</v>
-      </c>
-      <c r="B21" s="46">
-        <v>20.5</v>
+      <c r="A21" s="33">
+        <v>0.25967318287037039</v>
+      </c>
+      <c r="B21" s="34">
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
-        <v>0.47549437500000002</v>
-      </c>
-      <c r="B22" s="48">
-        <v>20.5</v>
+      <c r="A22" s="35">
+        <v>0.25968241898148148</v>
+      </c>
+      <c r="B22" s="36">
+        <v>20.440000000000001</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="13"/>
       <c r="O22" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -6035,9 +5966,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
-    </sheetView>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16.8" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6053,26 +5982,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:8" ht="49.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -6116,15 +6045,15 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4"/>
@@ -6155,8 +6084,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+    <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16.8" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6167,32 +6096,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.4">
@@ -6230,7 +6159,7 @@
     <row r="5" spans="2:11" s="25" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="24">
         <f>'Data In'!B22</f>
-        <v>20.5</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -6246,7 +6175,7 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4"/>

--- a/Excel/INTERFAS DE CALORIMETRO.xlsx
+++ b/Excel/INTERFAS DE CALORIMETRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\PROYECTOS\PROYECTOS ARDUINO\Sensor de temperatura (calorimetro)\PROYECTO_CALORIMETRO\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E59ECFA-E234-4307-BD0F-61B845189EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE0FDB-3E12-4A69-94AB-A860A43F5BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{09B851AE-F5D9-46F6-BDE3-F7E29BD24907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{09B851AE-F5D9-46F6-BDE3-F7E29BD24907}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -624,6 +624,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -641,15 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,49 +851,49 @@
                   <c:v>Time</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13:45.4</c:v>
+                  <c:v>41:33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13:46.2</c:v>
+                  <c:v>41:33.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13:47.0</c:v>
+                  <c:v>41:34.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13:47.8</c:v>
+                  <c:v>41:35.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13:48.6</c:v>
+                  <c:v>41:36.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13:49.4</c:v>
+                  <c:v>41:37.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13:50.2</c:v>
+                  <c:v>41:37.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13:51.0</c:v>
+                  <c:v>41:38.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13:51.8</c:v>
+                  <c:v>41:39.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13:52.6</c:v>
+                  <c:v>41:40.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13:53.4</c:v>
+                  <c:v>41:41.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13:54.2</c:v>
+                  <c:v>41:41.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13:55.0</c:v>
+                  <c:v>41:42.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13:55.8</c:v>
+                  <c:v>41:43.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13:56.6</c:v>
+                  <c:v>41:44.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,49 +911,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>20.38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,49 +1021,49 @@
                   <c:v>Time</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13:45.4</c:v>
+                  <c:v>41:33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13:46.2</c:v>
+                  <c:v>41:33.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13:47.0</c:v>
+                  <c:v>41:34.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13:47.8</c:v>
+                  <c:v>41:35.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13:48.6</c:v>
+                  <c:v>41:36.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13:49.4</c:v>
+                  <c:v>41:37.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13:50.2</c:v>
+                  <c:v>41:37.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13:51.0</c:v>
+                  <c:v>41:38.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13:51.8</c:v>
+                  <c:v>41:39.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13:52.6</c:v>
+                  <c:v>41:40.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13:53.4</c:v>
+                  <c:v>41:41.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13:54.2</c:v>
+                  <c:v>41:41.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13:55.0</c:v>
+                  <c:v>41:42.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13:55.8</c:v>
+                  <c:v>41:43.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13:56.6</c:v>
+                  <c:v>41:44.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1167,49 +1167,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1312,49 +1312,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1454,49 +1454,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1596,49 +1596,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1740,49 +1740,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1884,49 +1884,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2028,49 +2028,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2170,49 +2170,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2312,49 +2312,49 @@
                         <c:v>Time</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13:45.4</c:v>
+                        <c:v>41:33.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13:46.2</c:v>
+                        <c:v>41:33.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13:47.0</c:v>
+                        <c:v>41:34.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13:47.8</c:v>
+                        <c:v>41:35.4</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13:48.6</c:v>
+                        <c:v>41:36.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13:49.4</c:v>
+                        <c:v>41:37.0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13:50.2</c:v>
+                        <c:v>41:37.8</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13:51.0</c:v>
+                        <c:v>41:38.6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13:51.8</c:v>
+                        <c:v>41:39.4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>13:52.6</c:v>
+                        <c:v>41:40.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13:53.4</c:v>
+                        <c:v>41:41.0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>13:54.2</c:v>
+                        <c:v>41:41.8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>13:55.0</c:v>
+                        <c:v>41:42.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>13:55.8</c:v>
+                        <c:v>41:43.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>13:56.6</c:v>
+                        <c:v>41:44.2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2705,49 +2705,49 @@
                 <c:formatCode>mm:ss.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.25955342592592595</c:v>
+                  <c:v>0.44552108796296297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25956265046296295</c:v>
+                  <c:v>0.44553028935185185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25957187500000001</c:v>
+                  <c:v>0.4455394791666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25958109953703706</c:v>
+                  <c:v>0.44554873842592596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25959027777777777</c:v>
+                  <c:v>0.44555792824074075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25959956018518521</c:v>
+                  <c:v>0.44556711805555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25960878472222221</c:v>
+                  <c:v>0.44557635416666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25961802083333335</c:v>
+                  <c:v>0.4455855671296296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25962716435185185</c:v>
+                  <c:v>0.44559478009259257</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25963645833333332</c:v>
+                  <c:v>0.44560400462962962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25964568287037038</c:v>
+                  <c:v>0.44561319444444442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25965489583333334</c:v>
+                  <c:v>0.44562239583333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2596641203703704</c:v>
+                  <c:v>0.44563163194444444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25967318287037039</c:v>
+                  <c:v>0.44564084490740741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25968241898148148</c:v>
+                  <c:v>0.44565003472222225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,49 +2759,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>19.940000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,7 +5368,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5550,22 +5552,22 @@
       <c r="C24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="3:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="3:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3"/>
@@ -5596,8 +5598,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:XEP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -5618,47 +5620,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
@@ -5711,7 +5713,7 @@
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="str">
-        <f t="shared" ref="A7:B7" si="0">IF(A4="","",A4)</f>
+        <f t="shared" ref="A7" si="0">IF(A4="","",A4)</f>
         <v>Time</v>
       </c>
       <c r="B7" s="30" t="str">
@@ -5730,123 +5732,123 @@
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
-        <v>0.25955342592592595</v>
+        <v>0.44552108796296297</v>
       </c>
       <c r="B8" s="32">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
-        <v>0.25956265046296295</v>
+        <v>0.44553028935185185</v>
       </c>
       <c r="B9" s="34">
-        <v>20.440000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
-        <v>0.25957187500000001</v>
+        <v>0.4455394791666667</v>
       </c>
       <c r="B10" s="34">
-        <v>20.440000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
-        <v>0.25958109953703706</v>
+        <v>0.44554873842592596</v>
       </c>
       <c r="B11" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
-        <v>0.25959027777777777</v>
+        <v>0.44555792824074075</v>
       </c>
       <c r="B12" s="34">
-        <v>20.440000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
-        <v>0.25959956018518521</v>
+        <v>0.44556711805555554</v>
       </c>
       <c r="B13" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
-        <v>0.25960878472222221</v>
+        <v>0.44557635416666663</v>
       </c>
       <c r="B14" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
-        <v>0.25961802083333335</v>
+        <v>0.4455855671296296</v>
       </c>
       <c r="B15" s="34">
-        <v>20.440000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
-        <v>0.25962716435185185</v>
+        <v>0.44559478009259257</v>
       </c>
       <c r="B16" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
-        <v>0.25963645833333332</v>
+        <v>0.44560400462962962</v>
       </c>
       <c r="B17" s="34">
-        <v>20.38</v>
+        <v>20</v>
       </c>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
-        <v>0.25964568287037038</v>
+        <v>0.44561319444444442</v>
       </c>
       <c r="B18" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
-        <v>0.25965489583333334</v>
+        <v>0.44562239583333335</v>
       </c>
       <c r="B19" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
-        <v>0.2596641203703704</v>
+        <v>0.44563163194444444</v>
       </c>
       <c r="B20" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
-        <v>0.25967318287037039</v>
+        <v>0.44564084490740741</v>
       </c>
       <c r="B21" s="34">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
-        <v>0.25968241898148148</v>
+        <v>0.44565003472222225</v>
       </c>
       <c r="B22" s="36">
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>32</v>
@@ -5966,7 +5968,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="184" zoomScaleNormal="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16.8" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5982,26 +5984,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="49.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -6031,7 +6033,9 @@
       <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -6045,15 +6049,15 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4"/>
@@ -6084,9 +6088,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="218" zoomScaleNormal="218" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16.8" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6096,32 +6098,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.4">
@@ -6159,7 +6161,7 @@
     <row r="5" spans="2:11" s="25" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="24">
         <f>'Data In'!B22</f>
-        <v>20.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
